--- a/mereni_MD/3.sval3.xlsx
+++ b/mereni_MD/3.sval3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A52E75C-9B11-458C-B993-F2F5A26CA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019EA5A-E50B-4D6B-9214-AE1EECCDA0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,47 +113,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota v mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -163,7 +143,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -181,8 +173,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15567979002624671"/>
-                  <c:y val="-2.3564814814814816E-2"/>
+                  <c:x val="-7.1788495188101487E-2"/>
+                  <c:y val="-1.1708588509769613E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -215,7 +207,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$34</c:f>
               <c:numCache>
@@ -322,8 +314,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$34</c:f>
               <c:numCache>
@@ -430,19 +422,30 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3575-4C1B-8C8B-4498CF7C6129}"/>
+              <c16:uniqueId val="{00000000-6D24-45B3-A258-EDD8065A4ADA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -451,7 +454,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -469,8 +484,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17079090113735784"/>
-                  <c:y val="-5.5354695246427527E-2"/>
+                  <c:x val="-4.1232939632545929E-2"/>
+                  <c:y val="-0.10665791776027997"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -503,7 +518,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$34</c:f>
               <c:numCache>
@@ -610,8 +625,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$C$2:$C$34</c:f>
               <c:numCache>
@@ -718,11 +733,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3575-4C1B-8C8B-4498CF7C6129}"/>
+              <c16:uniqueId val="{00000002-6D24-45B3-A258-EDD8065A4ADA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -734,17 +749,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="969696240"/>
-        <c:axId val="935934320"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="969696240"/>
+        <c:axId val="1406525696"/>
+        <c:axId val="1292138367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1406525696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -754,8 +782,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -782,15 +810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935934320"/>
+        <c:crossAx val="1292138367"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="935934320"/>
+        <c:axId val="1292138367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,8 +841,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -841,9 +872,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="969696240"/>
+        <c:crossAx val="1406525696"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -853,37 +884,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -962,7 +962,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -989,8 +989,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1070,11 +1070,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1085,11 +1080,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1101,7 +1091,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1121,9 +1111,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1136,10 +1123,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1179,22 +1166,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1299,8 +1287,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1432,19 +1420,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1458,6 +1447,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1494,10 +1494,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B423459A-6F0D-5905-CB8A-40D48F21C58B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31C112B-08C4-44B8-5A70-7301D3CC2348}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1806,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,13 +1829,13 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>611.84613037109295</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>10</v>
       </c>
     </row>
@@ -1843,13 +1843,13 @@
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>640.50701904296795</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
@@ -1857,13 +1857,13 @@
       <c r="A4">
         <v>30</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>664.86376953125</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
@@ -1871,13 +1871,13 @@
       <c r="A5">
         <v>40</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>688.9609375</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
@@ -1885,13 +1885,13 @@
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>710.81951904296795</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
@@ -1899,13 +1899,13 @@
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>732.838623046875</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>10</v>
       </c>
     </row>
@@ -1913,13 +1913,13 @@
       <c r="A8">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>752.36688232421795</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>10</v>
       </c>
     </row>
@@ -1927,13 +1927,13 @@
       <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>777.97229003906205</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>29</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>10</v>
       </c>
     </row>
@@ -1941,13 +1941,13 @@
       <c r="A10">
         <v>90</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>803.63317871093705</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>33</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
@@ -1955,13 +1955,13 @@
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>822.83197021484295</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>36</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
@@ -1969,13 +1969,13 @@
       <c r="A12">
         <v>110</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>843.89709472656205</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>39</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>10</v>
       </c>
     </row>
@@ -1983,13 +1983,13 @@
       <c r="A13">
         <v>120</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>860.932373046875</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>42</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
@@ -1997,13 +1997,13 @@
       <c r="A14">
         <v>130</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>877.826904296875</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>45</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>10</v>
       </c>
     </row>
@@ -2011,13 +2011,13 @@
       <c r="A15">
         <v>140</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>898.00079345703102</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>48</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>10</v>
       </c>
     </row>
@@ -2025,13 +2025,13 @@
       <c r="A16">
         <v>150</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>912.543212890625</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>51</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>10</v>
       </c>
     </row>
@@ -2039,13 +2039,13 @@
       <c r="A17">
         <v>160</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>924.55572509765602</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>54</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
@@ -2053,13 +2053,13 @@
       <c r="A18">
         <v>170</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>945.84130859375</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>56</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>10</v>
       </c>
     </row>
@@ -2067,13 +2067,13 @@
       <c r="A19">
         <v>180</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>966.08935546875</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>59</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>10</v>
       </c>
     </row>
@@ -2081,13 +2081,13 @@
       <c r="A20">
         <v>190</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>978.19763183593705</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>62</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>10</v>
       </c>
     </row>
@@ -2095,13 +2095,13 @@
       <c r="A21">
         <v>200</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>994.101806640625</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>64</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>10</v>
       </c>
     </row>
@@ -2109,13 +2109,13 @@
       <c r="A22">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1009.63586425781</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>67</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>10</v>
       </c>
     </row>
@@ -2123,13 +2123,13 @@
       <c r="A23">
         <v>220</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>1025.64611816406</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>69</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>10</v>
       </c>
     </row>
@@ -2137,13 +2137,13 @@
       <c r="A24">
         <v>230</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>1041.68505859375</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>72</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>10</v>
       </c>
     </row>
@@ -2151,13 +2151,13 @@
       <c r="A25">
         <v>240</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1059.31884765625</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>74</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>10</v>
       </c>
     </row>
@@ -2165,13 +2165,13 @@
       <c r="A26">
         <v>250</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1078.61645507812</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>77</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>10</v>
       </c>
     </row>
@@ -2179,13 +2179,13 @@
       <c r="A27">
         <v>260</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1094.31018066406</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>80</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>10</v>
       </c>
     </row>
@@ -2193,13 +2193,13 @@
       <c r="A28">
         <v>270</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1117.24096679687</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>83</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>10</v>
       </c>
     </row>
@@ -2207,13 +2207,13 @@
       <c r="A29">
         <v>280</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1135.16625976562</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>86</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>10</v>
       </c>
     </row>
@@ -2221,13 +2221,13 @@
       <c r="A30">
         <v>290</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1153.01928710937</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>90</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>10</v>
       </c>
     </row>
@@ -2235,13 +2235,13 @@
       <c r="A31">
         <v>300</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>1169.89831542968</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>93</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>10</v>
       </c>
     </row>
@@ -2249,13 +2249,13 @@
       <c r="A32">
         <v>310</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>1191.1044921875</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>96</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>10</v>
       </c>
     </row>
@@ -2263,13 +2263,13 @@
       <c r="A33">
         <v>320</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>1206.58935546875</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>98</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>10</v>
       </c>
     </row>
@@ -2277,13 +2277,13 @@
       <c r="A34">
         <v>330</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>1220.67419433593</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>101</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>10</v>
       </c>
     </row>

--- a/mereni_MD/3.sval3.xlsx
+++ b/mereni_MD/3.sval3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019EA5A-E50B-4D6B-9214-AE1EECCDA0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32652933-1290-49EC-95B6-75755BAE77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,588 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0303149606299216E-2"/>
+                  <c:y val="5.6978346456692912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>611.84613037109295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640.50701904296795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>664.86376953125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>688.9609375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710.81951904296795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>732.838623046875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>752.36688232421795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>777.97229003906205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>803.63317871093705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>822.83197021484295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>843.89709472656205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>860.932373046875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>877.826904296875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>898.00079345703102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>912.543212890625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>924.55572509765602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>945.84130859375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>966.08935546875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>978.19763183593705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>994.101806640625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1009.63586425781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1025.64611816406</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1041.68505859375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1059.31884765625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1078.61645507812</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1094.31018066406</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1117.24096679687</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1135.16625976562</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1153.01928710937</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1169.89831542968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1191.1044921875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1206.58935546875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1220.67419433593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8926-4655-A08E-125409985BD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="750050543"/>
+        <c:axId val="487070223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="750050543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487070223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487070223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750050543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1477,20 +2058,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1510,6 +2607,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43721AF6-AB5D-9DF4-E991-B265D4E45B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1806,7 +2939,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
